--- a/data/hotels_by_city/Houston/Houston_shard_629.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_629.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d99082-Reviews-Super_8_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-Houston-North-I-45.h4857086.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,69 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r337993643-Super_8_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>99082</t>
+  </si>
+  <si>
+    <t>337993643</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was super clean, great service with good location. I was very surprised how clean and stylish the room was. The price was great too! If I ever need to stay in the Tomball area THIS is the hotel of my choice!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r170430489-Super_8_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170430489</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Love this place went to go see my sister and had a great time got to swim in pool.....great rooms clean and great service... Thanks super 8. Will be back to see this place. Love houston and this hotel had a great view..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r136011785-Super_8_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136011785</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights</t>
+  </si>
+  <si>
+    <t>It is a nice property nice rooms and security who stays all night parked in front literally. They serve breakfast and they are kid friendly. Hold on to your honey though because there were lots of  ladies vacationing with there kiddies and on the prowl and ready to meet and greet any man who was interested but that's anywhere you go especially if he looks gud  so all in all nice property and great location as well lmao...</t>
+  </si>
+  <si>
+    <t>July 2012</t>
   </si>
 </sst>
 </file>
@@ -532,11 +604,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +636,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61891</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61891</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61891</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_629.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_629.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r593638110-Super_8_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>99082</t>
+  </si>
+  <si>
+    <t>593638110</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>I came here and stayed 2 days. The owner helped me and was very nice, helpful and friendly. I got a room and I also got a room for my helpers. They also told me they had a very nice room with comfortable beds and everything worked as it should. My room was also comfortable with everything in it working and my bed was also very comfortable. I will definitely come here again if I am in the area. I will recommend Super8 to everyone I know if they need a room and are in the area. Nice place to rest and relax!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r473724808-Super_8_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473724808</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>You get what you expect</t>
+  </si>
+  <si>
+    <t>Ok so the price is good, the rooms are extremely clean and they are cleaned on a daily basis, I needed to be in this location because it was close to where I had to be and I wasn't using a car, but uber are within 7 minutes or less.Yes there were some undesirable types wandering around but so was the owner on a late evening ensuring his guests were safe, the staff were very attentive and able to answer all my questions, Ramon was amazing when I first arrived telling me where I could get food, within walking distance there is a buffalo wild wings, olive garden and the generic taco place with a bell, that's if you walk down pat the McLaren sales room, if you go north there's a Texas road steak house still walkable just a little further. Everyone was friendly and my bed was very comfortable all in all better than expected, breakfast has make your own waffles, there was both toast and bagels, yogurts and fruit, along with juice and coffee I would have liked some ham and cheese but you get what you pay for, thanks to all the staff there you make the place welcomingMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ok so the price is good, the rooms are extremely clean and they are cleaned on a daily basis, I needed to be in this location because it was close to where I had to be and I wasn't using a car, but uber are within 7 minutes or less.Yes there were some undesirable types wandering around but so was the owner on a late evening ensuring his guests were safe, the staff were very attentive and able to answer all my questions, Ramon was amazing when I first arrived telling me where I could get food, within walking distance there is a buffalo wild wings, olive garden and the generic taco place with a bell, that's if you walk down pat the McLaren sales room, if you go north there's a Texas road steak house still walkable just a little further. Everyone was friendly and my bed was very comfortable all in all better than expected, breakfast has make your own waffles, there was both toast and bagels, yogurts and fruit, along with juice and coffee I would have liked some ham and cheese but you get what you pay for, thanks to all the staff there you make the place welcomingMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r337993643-Super_8_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>99082</t>
-  </si>
-  <si>
     <t>337993643</t>
   </si>
   <si>
@@ -211,6 +256,45 @@
   </si>
   <si>
     <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r100389201-Super_8_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>100389201</t>
+  </si>
+  <si>
+    <t>03/16/2011</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>This is on of the worst hotels I have ever stayed at. We checked in late because our flight came in at 7pm. We came to the door to check in and there was a sign saying that there will be no hot water for Friday and Saturday due to some gas line problem. This was a huge let down. There is no food nearby and we were force to get delivery. The room had a musky smell of old man and cigeretts, this was a non smoking room mind you. There were holes in the wall and it was very dirty. Our room came with a coffee maker, however no regular coffee just decaf. we were in too big of hurry to ask for some because we had to catch an early flight. I would not recomend this hotel to anyone who wants a comfortable nice place to sleep for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>This is on of the worst hotels I have ever stayed at. We checked in late because our flight came in at 7pm. We came to the door to check in and there was a sign saying that there will be no hot water for Friday and Saturday due to some gas line problem. This was a huge let down. There is no food nearby and we were force to get delivery. The room had a musky smell of old man and cigeretts, this was a non smoking room mind you. There were holes in the wall and it was very dirty. Our room came with a coffee maker, however no regular coffee just decaf. we were in too big of hurry to ask for some because we had to catch an early flight. I would not recomend this hotel to anyone who wants a comfortable nice place to sleep for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99082-r75005022-Super_8_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>75005022</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>clean and peaceful</t>
+  </si>
+  <si>
+    <t>nice motel room clean and bathroom too but the AC really too noisy!!!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
 </sst>
 </file>
@@ -756,9 +840,13 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -804,31 +892,25 @@
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +926,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -853,49 +935,293 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61891</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61891</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61891</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61891</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
